--- a/ok.xlsx
+++ b/ok.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8976" windowWidth="17280" xWindow="3936" yWindow="1092"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -646,7 +646,7 @@
         <is>
           <t>2020年
 11月
-03日</t>
+5 日</t>
         </is>
       </c>
       <c r="B1" s="14" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C3" s="19" t="inlineStr">
         <is>
-          <t>85.3 Gbps</t>
+          <t>87.0 Gbps</t>
         </is>
       </c>
       <c r="D3" s="18" t="inlineStr">
         <is>
-          <t>7.82 %</t>
+          <t>7.91 %</t>
         </is>
       </c>
       <c r="E3" s="16" t="n"/>
@@ -705,12 +705,12 @@
       </c>
       <c r="C4" s="19" t="inlineStr">
         <is>
-          <t>272.79 Gbps</t>
+          <t>270.59 Gbps</t>
         </is>
       </c>
       <c r="D4" s="18" t="inlineStr">
         <is>
-          <t>25.02 %</t>
+          <t>24.63 %</t>
         </is>
       </c>
       <c r="E4" s="16" t="n"/>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="19" t="inlineStr">
         <is>
-          <t>732.13 Gbps</t>
+          <t>741.06 Gbps</t>
         </is>
       </c>
       <c r="D5" s="18" t="inlineStr">
         <is>
-          <t>67.15 %</t>
+          <t>67.45 %</t>
         </is>
       </c>
       <c r="E5" s="16" t="n"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="19" t="inlineStr">
         <is>
-          <t>1090.23 Gbps</t>
+          <t>1098.65 Gbps</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="E6" s="20" t="inlineStr">
         <is>
-          <t>119.81 万</t>
+          <t>119.95 万</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>909.97 kbps</t>
+          <t>960.42 kbps</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E7" s="18" t="inlineStr">
         <is>
-          <t>92.17 %</t>
+          <t>92.09 %</t>
         </is>
       </c>
     </row>
